--- a/refs/heads/rc1/StructureDefinition-svc-practitioner.xlsx
+++ b/refs/heads/rc1/StructureDefinition-svc-practitioner.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="290">
   <si>
     <t>Path</t>
   </si>
@@ -368,6 +368,13 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>PRD-7 (or XCN.1)</t>
   </si>
   <si>
@@ -378,6 +385,214 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>SVC_Identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -513,9 +728,6 @@
     <t>Needed to address the person correctly.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -603,25 +815,7 @@
     <t>Practitioner.qualification.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Practitioner.qualification.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -659,10 +853,6 @@
     <t>Practitioner.qualification.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Coded representation of the qualification</t>
   </si>
   <si>
@@ -684,10 +874,6 @@
     <t>Practitioner.qualification.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Period during which the qualification is valid</t>
   </si>
   <si>
@@ -704,10 +890,6 @@
   </si>
   <si>
     <t>Practitioner.qualification.issuer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Organization that regulates and issues the qualification</t>
@@ -889,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -899,7 +1081,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.9140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -921,11 +1103,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -934,7 +1116,7 @@
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.08984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="55.41796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="52.37890625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2065,7 +2247,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>42</v>
@@ -2127,16 +2309,14 @@
         <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>107</v>
@@ -2154,32 +2334,34 @@
         <v>62</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2191,26 +2373,22 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P12" t="s" s="2">
-        <v>122</v>
-      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2254,13 +2432,13 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>40</v>
@@ -2269,21 +2447,21 @@
         <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2294,7 +2472,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -2303,23 +2481,19 @@
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2367,28 +2541,28 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2396,11 +2570,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2416,23 +2590,21 @@
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
       </c>
@@ -2468,19 +2640,19 @@
         <v>40</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2492,16 +2664,16 @@
         <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -2509,7 +2681,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2520,31 +2692,31 @@
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2569,13 +2741,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
@@ -2593,13 +2765,13 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>40</v>
@@ -2608,13 +2780,13 @@
         <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -2622,7 +2794,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2645,17 +2817,19 @@
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="N16" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2680,13 +2854,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -2704,7 +2878,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2719,21 +2893,21 @@
         <v>62</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2741,13 +2915,13 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -2756,17 +2930,19 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="N17" t="s" s="2">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2779,7 +2955,7 @@
         <v>40</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>40</v>
@@ -2815,7 +2991,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2830,21 +3006,21 @@
         <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2852,33 +3028,33 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -2890,7 +3066,7 @@
         <v>40</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>40</v>
@@ -2926,13 +3102,13 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -2941,13 +3117,13 @@
         <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -2955,7 +3131,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2966,7 +3142,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -2975,16 +3151,16 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3035,13 +3211,13 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3050,21 +3226,21 @@
         <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3072,30 +3248,32 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3144,7 +3322,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3156,16 +3334,16 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3173,18 +3351,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3193,25 +3371,29 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="Q21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3255,40 +3437,40 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3301,25 +3483,25 @@
         <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3368,7 +3550,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3380,16 +3562,16 @@
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3397,7 +3579,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3417,20 +3599,22 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3479,7 +3663,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3494,13 +3678,13 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -3508,7 +3692,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3516,10 +3700,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3528,19 +3712,23 @@
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3564,13 +3752,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3588,13 +3776,13 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -3603,13 +3791,13 @@
         <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -3617,7 +3805,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3637,20 +3825,20 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>211</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3675,13 +3863,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3699,7 +3887,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3714,13 +3902,13 @@
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3728,7 +3916,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3748,19 +3936,21 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3808,7 +3998,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3823,13 +4013,13 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -3837,7 +4027,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3860,19 +4050,17 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -3897,13 +4085,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -3921,7 +4109,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3936,20 +4124,1015 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM27">
+  <autoFilter ref="A1:AM36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3959,7 +5142,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI26">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
